--- a/biology/Botanique/Parc_Snellman_(Oulu)/Parc_Snellman_(Oulu).xlsx
+++ b/biology/Botanique/Parc_Snellman_(Oulu)/Parc_Snellman_(Oulu).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Snellman (finnois : Snellmaninpuisto) est un parc du fossé situé dans le quartier de Pokkinen à Oulu en Finlande. 
 </t>
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Snellman est situé entre les rues Hallituskatu, Isokatu et Kirkkokatu[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Snellman est situé entre les rues Hallituskatu, Isokatu et Kirkkokatu. 
 Le parc Snellman doit son nom à une famille influente de marchands basée à Oulu. 
 Le parc expose deux sculptures en plein air: Kurjet sculptée par Jussi Mäntynen en  1947 et Mediator de Martti Aiha réalisée en 1999. 
 Mediator est une étonnante sculpture en acier orange de 27 mètres de long qui ressemble à un ancien pont de chemin de fer qui enjambe le fossé.
-Mediator est une œuvre donnée à la ville de Kaleva, représentant un flux d'informations déchiquetées[2].
+Mediator est une œuvre donnée à la ville de Kaleva, représentant un flux d'informations déchiquetées.
 Le parc Snellman est situé entre le parc Hallituspuisto et le parc Otto Karhi.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Vues du parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le parc Snellman vu de l'hôtel de ville d'Oulu.
